--- a/examples/ms_office/inp/sample2.xlsx
+++ b/examples/ms_office/inp/sample2.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">To whom it may concern #1</t>
+    <t xml:space="preserve">To whom it may concern #2</t>
   </si>
   <si>
     <t xml:space="preserve">I can definitely state that {name} has been a human for many years.</t>
@@ -40,6 +40,7 @@
         <sz val="12"/>
         <rFont val="Liberation Serif;Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Re: </t>
     </r>
@@ -48,6 +49,7 @@
         <sz val="12"/>
         <rFont val="Liberation Serif;Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{name} (DOB: {dob})</t>
     </r>
@@ -68,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,12 +91,14 @@
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -174,9 +179,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.61"/>
   </cols>
